--- a/src/main/resources/templates/excel_template.xlsx
+++ b/src/main/resources/templates/excel_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dldjd\Desktop\CodeStudy\Fastcampus\HouseHub\KDEV4-HouseHub-BE\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85BEEAF4-D49E-4778-8FCC-5793F3CF3317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55243C46-2E78-433E-A2EE-207978D7C3C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-7770" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>ageGroup</t>
-  </si>
-  <si>
     <t>contact</t>
   </si>
   <si>
@@ -38,6 +35,10 @@
   </si>
   <si>
     <t>gender</t>
+  </si>
+  <si>
+    <t>birthDate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -317,35 +318,35 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="16.109375" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
@@ -353,7 +354,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -361,7 +362,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -369,7 +370,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -377,7 +378,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -385,7 +386,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -393,7 +394,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -401,7 +402,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -409,7 +410,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
